--- a/11-02-2021.xlsx
+++ b/11-02-2021.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
   <si>
     <t>Reporte de Caja</t>
   </si>
@@ -30,6 +30,48 @@
   </si>
   <si>
     <t>Usuario</t>
+  </si>
+  <si>
+    <t>Efectivo</t>
+  </si>
+  <si>
+    <t>2021-02-11 10:02:35.0</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>Ingreso</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2021-02-11 10:13:50.0</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>facu</t>
+  </si>
+  <si>
+    <t>2021-02-11 10:53:42.0</t>
+  </si>
+  <si>
+    <t>12.12</t>
+  </si>
+  <si>
+    <t>faculoren7@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -116,17 +158,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F5"/>
+  <dimension ref="A2:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" zoomScale="150"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="2.7890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="6.79296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.87109375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="7.0078125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="10.234375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="8.45703125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="21.38671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -134,21 +176,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
+    <row r="6">
+      <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/11-02-2021.xlsx
+++ b/11-02-2021.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="23">
   <si>
     <t>Reporte de Caja</t>
   </si>
@@ -72,6 +72,15 @@
   </si>
   <si>
     <t>faculoren7@gmail.com</t>
+  </si>
+  <si>
+    <t>2021-02-11 10:54:03.0</t>
+  </si>
+  <si>
+    <t>Egreso</t>
+  </si>
+  <si>
+    <t>2021-02-11 11:21:58.0</t>
   </si>
 </sst>
 </file>
@@ -158,7 +167,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:G13"/>
+  <dimension ref="A2:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" zoomScale="150"/>
   </sheetViews>
@@ -336,6 +345,46 @@
         <v>13</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="B2:D3"/>
